--- a/1st_GoogleSheets/1st_project/ДЗ_1_Основы_Google_Таблиц.xlsx
+++ b/1st_GoogleSheets/1st_project/ДЗ_1_Основы_Google_Таблиц.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Sciences\_Programming\2_Data_analyst_Tehnikum\1st_GoogleSheets\1st_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1084,7 +1084,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L203" si="1">K4*$B$1</f>
-        <v>52.282999999999994</v>
+        <v>15.684899999999997</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="L5" s="21">
         <f t="shared" si="1"/>
-        <v>7.64</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="L6" s="21">
         <f t="shared" si="1"/>
-        <v>32.431000000000004</v>
+        <v>9.7293000000000003</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="L7" s="21">
         <f t="shared" si="1"/>
-        <v>46.576000000000001</v>
+        <v>13.972799999999999</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L8" s="21">
         <f t="shared" si="1"/>
-        <v>60.417000000000009</v>
+        <v>18.1251</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="L9" s="21">
         <f t="shared" si="1"/>
-        <v>59.773000000000003</v>
+        <v>17.931899999999999</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="L10" s="21">
         <f t="shared" si="1"/>
-        <v>41.304000000000002</v>
+        <v>12.3912</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="L11" s="21">
         <f t="shared" si="1"/>
-        <v>73.56</v>
+        <v>22.068000000000001</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="L12" s="21">
         <f t="shared" si="1"/>
-        <v>7.2519999999999998</v>
+        <v>2.1755999999999998</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="L13" s="21">
         <f t="shared" si="1"/>
-        <v>16.452000000000002</v>
+        <v>4.9356</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="L14" s="21">
         <f t="shared" si="1"/>
-        <v>5.7920000000000007</v>
+        <v>1.7376</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="L15" s="21">
         <f t="shared" si="1"/>
-        <v>10.204000000000001</v>
+        <v>3.0611999999999999</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="L16" s="21">
         <f t="shared" si="1"/>
-        <v>23.475000000000001</v>
+        <v>7.0424999999999995</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L17" s="21">
         <f t="shared" si="1"/>
-        <v>43.19</v>
+        <v>12.956999999999999</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="L18" s="21">
         <f t="shared" si="1"/>
-        <v>71.38</v>
+        <v>21.413999999999998</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L19" s="21">
         <f t="shared" si="1"/>
-        <v>56.231999999999999</v>
+        <v>16.869599999999998</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="L20" s="21">
         <f t="shared" si="1"/>
-        <v>48.251000000000005</v>
+        <v>14.475300000000001</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="L21" s="21">
         <f t="shared" si="1"/>
-        <v>43.566000000000003</v>
+        <v>13.069799999999999</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="L22" s="21">
         <f t="shared" si="1"/>
-        <v>16.401</v>
+        <v>4.9202999999999992</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="L23" s="21">
         <f t="shared" si="1"/>
-        <v>8.06</v>
+        <v>2.4179999999999997</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="L24" s="21">
         <f t="shared" si="1"/>
-        <v>43.02000000000001</v>
+        <v>12.906000000000001</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="L25" s="21">
         <f t="shared" si="1"/>
-        <v>26.394000000000002</v>
+        <v>7.9181999999999997</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="L26" s="21">
         <f t="shared" si="1"/>
-        <v>6.6400000000000006</v>
+        <v>1.992</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="L27" s="21">
         <f t="shared" si="1"/>
-        <v>17.28</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="L28" s="21">
         <f t="shared" si="1"/>
-        <v>26.588999999999999</v>
+        <v>7.9766999999999992</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="L29" s="21">
         <f t="shared" si="1"/>
-        <v>42.072000000000003</v>
+        <v>12.621600000000001</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="L30" s="21">
         <f t="shared" si="1"/>
-        <v>3.3520000000000003</v>
+        <v>1.0056</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="L31" s="21">
         <f t="shared" si="1"/>
-        <v>17.534000000000002</v>
+        <v>5.2602000000000002</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="L32" s="21">
         <f t="shared" si="1"/>
-        <v>44.180000000000007</v>
+        <v>13.254</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="L33" s="21">
         <f t="shared" si="1"/>
-        <v>22.401</v>
+        <v>6.7202999999999991</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="L34" s="21">
         <f t="shared" si="1"/>
-        <v>47.064999999999998</v>
+        <v>14.119499999999999</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="L35" s="21">
         <f t="shared" si="1"/>
-        <v>70.262999999999991</v>
+        <v>21.078899999999997</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="L36" s="21">
         <f t="shared" si="1"/>
-        <v>67.024000000000001</v>
+        <v>20.107199999999999</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="L37" s="21">
         <f t="shared" si="1"/>
-        <v>19.316000000000003</v>
+        <v>5.7947999999999995</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="L38" s="21">
         <f t="shared" si="1"/>
-        <v>39.768000000000001</v>
+        <v>11.930400000000001</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="L39" s="21">
         <f t="shared" si="1"/>
-        <v>6.8120000000000012</v>
+        <v>2.0436000000000001</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="L40" s="21">
         <f t="shared" si="1"/>
-        <v>31.31</v>
+        <v>9.3929999999999989</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="L41" s="21">
         <f t="shared" si="1"/>
-        <v>54.792000000000009</v>
+        <v>16.437600000000003</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L42" s="21">
         <f t="shared" si="1"/>
-        <v>43.936000000000007</v>
+        <v>13.1808</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L43" s="21">
         <f t="shared" si="1"/>
-        <v>24.096000000000004</v>
+        <v>7.2287999999999997</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="L44" s="21">
         <f t="shared" si="1"/>
-        <v>8.6720000000000006</v>
+        <v>2.6015999999999999</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="L45" s="21">
         <f t="shared" si="1"/>
-        <v>11.222000000000001</v>
+        <v>3.3666</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="L46" s="21">
         <f t="shared" si="1"/>
-        <v>41.472000000000008</v>
+        <v>12.441600000000001</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="L47" s="21">
         <f t="shared" si="1"/>
-        <v>78.960000000000008</v>
+        <v>23.687999999999999</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L48" s="21">
         <f t="shared" si="1"/>
-        <v>3.0739999999999998</v>
+        <v>0.92219999999999991</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="L49" s="21">
         <f t="shared" si="1"/>
-        <v>37.583999999999996</v>
+        <v>11.275199999999998</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="L50" s="21">
         <f t="shared" si="1"/>
-        <v>51.021000000000001</v>
+        <v>15.306299999999998</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="L51" s="21">
         <f t="shared" si="1"/>
-        <v>18.009</v>
+        <v>5.4027000000000003</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="L52" s="21">
         <f t="shared" si="1"/>
-        <v>11.358000000000001</v>
+        <v>3.4074</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="L53" s="21">
         <f t="shared" si="1"/>
-        <v>82.63</v>
+        <v>24.788999999999998</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="L54" s="21">
         <f t="shared" si="1"/>
-        <v>63.980000000000011</v>
+        <v>19.194000000000003</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="L55" s="21">
         <f t="shared" si="1"/>
-        <v>22.295000000000002</v>
+        <v>6.6885000000000003</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="L56" s="21">
         <f t="shared" si="1"/>
-        <v>7.1480000000000006</v>
+        <v>2.1444000000000001</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="L57" s="21">
         <f t="shared" si="1"/>
-        <v>1.5430000000000001</v>
+        <v>0.46289999999999998</v>
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="L58" s="21">
         <f t="shared" si="1"/>
-        <v>3.2320000000000002</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="L59" s="21">
         <f t="shared" si="1"/>
-        <v>68.784000000000006</v>
+        <v>20.635200000000001</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="L60" s="21">
         <f t="shared" si="1"/>
-        <v>8.8680000000000003</v>
+        <v>2.6604000000000001</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="L61" s="21">
         <f t="shared" si="1"/>
-        <v>71.679999999999993</v>
+        <v>21.503999999999998</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="L62" s="21">
         <f t="shared" si="1"/>
-        <v>72.350000000000009</v>
+        <v>21.704999999999998</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="L63" s="21">
         <f t="shared" si="1"/>
-        <v>18.366</v>
+        <v>5.5097999999999994</v>
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="L64" s="21">
         <f t="shared" si="1"/>
-        <v>7.4220000000000006</v>
+        <v>2.2265999999999999</v>
       </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="L65" s="21">
         <f t="shared" si="1"/>
-        <v>33.438000000000002</v>
+        <v>10.0314</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="L66" s="21">
         <f t="shared" si="1"/>
-        <v>49.563000000000002</v>
+        <v>14.8689</v>
       </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="L67" s="21">
         <f t="shared" si="1"/>
-        <v>15.81</v>
+        <v>4.7429999999999994</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="L68" s="21">
         <f t="shared" si="1"/>
-        <v>30.295999999999999</v>
+        <v>9.0887999999999991</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="L69" s="21">
         <f t="shared" si="1"/>
-        <v>15.87</v>
+        <v>4.7609999999999992</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="L70" s="21">
         <f t="shared" si="1"/>
-        <v>6.694</v>
+        <v>2.0082</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="L71" s="21">
         <f t="shared" si="1"/>
-        <v>58.566000000000003</v>
+        <v>17.569799999999997</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="L72" s="21">
         <f t="shared" si="1"/>
-        <v>78.77</v>
+        <v>23.630999999999997</v>
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="L73" s="21">
         <f t="shared" si="1"/>
-        <v>1.833</v>
+        <v>0.54989999999999994</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="L74" s="21">
         <f t="shared" si="1"/>
-        <v>89.480000000000018</v>
+        <v>26.844000000000001</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="L75" s="21">
         <f t="shared" si="1"/>
-        <v>62.12</v>
+        <v>18.635999999999996</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="L76" s="21">
         <f t="shared" si="1"/>
-        <v>14.556000000000001</v>
+        <v>4.3667999999999996</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="L77" s="21">
         <f t="shared" si="1"/>
-        <v>45.545999999999999</v>
+        <v>13.663799999999998</v>
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="L78" s="21">
         <f t="shared" si="1"/>
-        <v>67.203000000000003</v>
+        <v>20.160899999999998</v>
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="L79" s="21">
         <f t="shared" si="1"/>
-        <v>41.650000000000006</v>
+        <v>12.494999999999999</v>
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="L80" s="21">
         <f t="shared" si="1"/>
-        <v>44.136000000000003</v>
+        <v>13.2408</v>
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="L81" s="21">
         <f t="shared" si="1"/>
-        <v>18.009</v>
+        <v>5.4027000000000003</v>
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="L82" s="21">
         <f t="shared" si="1"/>
-        <v>78.31</v>
+        <v>23.492999999999999</v>
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="L83" s="21">
         <f t="shared" si="1"/>
-        <v>10.19</v>
+        <v>3.0569999999999995</v>
       </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="L84" s="21">
         <f t="shared" si="1"/>
-        <v>59.514000000000003</v>
+        <v>17.854199999999999</v>
       </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="L85" s="21">
         <f t="shared" si="1"/>
-        <v>29.004000000000005</v>
+        <v>8.7012</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="L86" s="21">
         <f t="shared" si="1"/>
-        <v>15.4</v>
+        <v>4.62</v>
       </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="L87" s="21">
         <f t="shared" si="1"/>
-        <v>32.143999999999998</v>
+        <v>9.6432000000000002</v>
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="L88" s="21">
         <f t="shared" si="1"/>
-        <v>24.454999999999998</v>
+        <v>7.3364999999999991</v>
       </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="L89" s="21">
         <f t="shared" si="1"/>
-        <v>58.14200000000001</v>
+        <v>17.442600000000002</v>
       </c>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="L90" s="21">
         <f t="shared" si="1"/>
-        <v>38.26</v>
+        <v>11.477999999999998</v>
       </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="L91" s="21">
         <f t="shared" si="1"/>
-        <v>34.566000000000003</v>
+        <v>10.3698</v>
       </c>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="L92" s="21">
         <f t="shared" si="1"/>
-        <v>4.2469999999999999</v>
+        <v>1.2741</v>
       </c>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="L93" s="21">
         <f t="shared" si="1"/>
-        <v>46.193999999999996</v>
+        <v>13.858199999999998</v>
       </c>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="L94" s="21">
         <f t="shared" si="1"/>
-        <v>18.952000000000002</v>
+        <v>5.6856</v>
       </c>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="L95" s="21">
         <f t="shared" si="1"/>
-        <v>44.860000000000007</v>
+        <v>13.458</v>
       </c>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="L96" s="21">
         <f t="shared" si="1"/>
-        <v>15.386000000000003</v>
+        <v>4.6158000000000001</v>
       </c>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="L97" s="21">
         <f t="shared" si="1"/>
-        <v>57.924000000000007</v>
+        <v>17.377199999999998</v>
       </c>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="L98" s="21">
         <f t="shared" si="1"/>
-        <v>8.9749999999999996</v>
+        <v>2.6924999999999999</v>
       </c>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="L99" s="21">
         <f t="shared" si="1"/>
-        <v>9.7160000000000011</v>
+        <v>2.9147999999999996</v>
       </c>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L100" s="21">
         <f t="shared" si="1"/>
-        <v>87.87</v>
+        <v>26.361000000000001</v>
       </c>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="L101" s="21">
         <f t="shared" si="1"/>
-        <v>7.2060000000000004</v>
+        <v>2.1617999999999999</v>
       </c>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="L102" s="21">
         <f t="shared" si="1"/>
-        <v>15.825000000000001</v>
+        <v>4.7474999999999996</v>
       </c>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="L103" s="21">
         <f t="shared" si="1"/>
-        <v>49.620000000000005</v>
+        <v>14.886000000000001</v>
       </c>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="L104" s="21">
         <f t="shared" si="1"/>
-        <v>4.8710000000000004</v>
+        <v>1.4613</v>
       </c>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="L105" s="21">
         <f t="shared" si="1"/>
-        <v>70.694999999999993</v>
+        <v>21.208499999999997</v>
       </c>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="L106" s="21">
         <f t="shared" si="1"/>
-        <v>20.763000000000002</v>
+        <v>6.2288999999999994</v>
       </c>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="L107" s="21">
         <f t="shared" si="1"/>
-        <v>34.956000000000003</v>
+        <v>10.486800000000001</v>
       </c>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="L108" s="21">
         <f t="shared" si="1"/>
-        <v>21.245000000000005</v>
+        <v>6.3734999999999999</v>
       </c>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="L109" s="21">
         <f t="shared" si="1"/>
-        <v>88.670000000000016</v>
+        <v>26.600999999999999</v>
       </c>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="L110" s="21">
         <f t="shared" si="1"/>
-        <v>16.428000000000001</v>
+        <v>4.9283999999999999</v>
       </c>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L111" s="21">
         <f t="shared" si="1"/>
-        <v>37.278000000000006</v>
+        <v>11.183400000000001</v>
       </c>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="L112" s="21">
         <f t="shared" si="1"/>
-        <v>30.582000000000001</v>
+        <v>9.1745999999999999</v>
       </c>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="L113" s="21">
         <f t="shared" si="1"/>
-        <v>81.970000000000013</v>
+        <v>24.591000000000001</v>
       </c>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="L114" s="21">
         <f t="shared" si="1"/>
-        <v>3.298</v>
+        <v>0.98939999999999984</v>
       </c>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="L115" s="21">
         <f t="shared" si="1"/>
-        <v>29.463000000000001</v>
+        <v>8.8388999999999989</v>
       </c>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="L116" s="21">
         <f t="shared" si="1"/>
-        <v>50.988</v>
+        <v>15.296399999999998</v>
       </c>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="L117" s="21">
         <f t="shared" si="1"/>
-        <v>52.263000000000005</v>
+        <v>15.678899999999999</v>
       </c>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="L118" s="21">
         <f t="shared" si="1"/>
-        <v>72.710999999999999</v>
+        <v>21.813299999999998</v>
       </c>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="L119" s="21">
         <f t="shared" si="1"/>
-        <v>8.1059999999999999</v>
+        <v>2.4318</v>
       </c>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="L120" s="21">
         <f t="shared" si="1"/>
-        <v>10.97</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="L121" s="21">
         <f t="shared" si="1"/>
-        <v>5.1360000000000001</v>
+        <v>1.5407999999999999</v>
       </c>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="L122" s="21">
         <f t="shared" si="1"/>
-        <v>10.96</v>
+        <v>3.2880000000000003</v>
       </c>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="L123" s="21">
         <f t="shared" si="1"/>
-        <v>10.688000000000001</v>
+        <v>3.2063999999999999</v>
       </c>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="L124" s="21">
         <f t="shared" si="1"/>
-        <v>79.64800000000001</v>
+        <v>23.894400000000001</v>
       </c>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="L125" s="21">
         <f t="shared" si="1"/>
-        <v>39.984000000000002</v>
+        <v>11.995199999999999</v>
       </c>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L126" s="21">
         <f t="shared" si="1"/>
-        <v>89.963999999999999</v>
+        <v>26.9892</v>
       </c>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="L127" s="21">
         <f t="shared" si="1"/>
-        <v>51.128</v>
+        <v>15.338399999999998</v>
       </c>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="L128" s="21">
         <f t="shared" si="1"/>
-        <v>45.176000000000002</v>
+        <v>13.5528</v>
       </c>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="L129" s="21">
         <f t="shared" si="1"/>
-        <v>65.582999999999998</v>
+        <v>19.674899999999997</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="L130" s="21">
         <f t="shared" si="1"/>
-        <v>16.125</v>
+        <v>4.8374999999999995</v>
       </c>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="L131" s="21">
         <f t="shared" si="1"/>
-        <v>28.557000000000002</v>
+        <v>8.5670999999999999</v>
       </c>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="L132" s="21">
         <f t="shared" si="1"/>
-        <v>54.832000000000008</v>
+        <v>16.4496</v>
       </c>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="L133" s="21">
         <f t="shared" si="1"/>
-        <v>81.25200000000001</v>
+        <v>24.375599999999999</v>
       </c>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="L134" s="21">
         <f t="shared" si="1"/>
-        <v>27.733999999999998</v>
+        <v>8.3201999999999998</v>
       </c>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="L135" s="21">
         <f t="shared" si="1"/>
-        <v>55.277999999999999</v>
+        <v>16.583399999999997</v>
       </c>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="L136" s="21">
         <f t="shared" si="1"/>
-        <v>13.936000000000002</v>
+        <v>4.1808000000000005</v>
       </c>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="L137" s="21">
         <f t="shared" si="1"/>
-        <v>52.470000000000006</v>
+        <v>15.741000000000001</v>
       </c>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="L138" s="21">
         <f t="shared" si="1"/>
-        <v>48.78</v>
+        <v>14.633999999999999</v>
       </c>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="L139" s="21">
         <f t="shared" si="1"/>
-        <v>27.065999999999999</v>
+        <v>8.1197999999999979</v>
       </c>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="L140" s="21">
         <f t="shared" si="1"/>
-        <v>13.154999999999999</v>
+        <v>3.9464999999999995</v>
       </c>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="L141" s="21">
         <f t="shared" si="1"/>
-        <v>20.652000000000001</v>
+        <v>6.1955999999999998</v>
       </c>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="L142" s="21">
         <f t="shared" si="1"/>
-        <v>51.91</v>
+        <v>15.572999999999997</v>
       </c>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="L143" s="21">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="L144" s="21">
         <f t="shared" si="1"/>
-        <v>89.800000000000011</v>
+        <v>26.939999999999998</v>
       </c>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="L145" s="21">
         <f t="shared" si="1"/>
-        <v>90.5</v>
+        <v>27.15</v>
       </c>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="L146" s="21">
         <f t="shared" si="1"/>
-        <v>68.600000000000009</v>
+        <v>20.58</v>
       </c>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="L147" s="21">
         <f t="shared" si="1"/>
-        <v>3.0410000000000004</v>
+        <v>0.9123</v>
       </c>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="L148" s="21">
         <f t="shared" si="1"/>
-        <v>46.77000000000001</v>
+        <v>14.031000000000001</v>
       </c>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="L149" s="21">
         <f t="shared" si="1"/>
-        <v>27.756</v>
+        <v>8.3268000000000004</v>
       </c>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="L150" s="21">
         <f t="shared" si="1"/>
-        <v>30.14</v>
+        <v>9.0419999999999998</v>
       </c>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="L151" s="21">
         <f t="shared" si="1"/>
-        <v>26.456000000000003</v>
+        <v>7.9367999999999999</v>
       </c>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L152" s="21">
         <f t="shared" si="1"/>
-        <v>57.488</v>
+        <v>17.246399999999998</v>
       </c>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="L153" s="21">
         <f t="shared" si="1"/>
-        <v>25.968000000000004</v>
+        <v>7.7904</v>
       </c>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="L154" s="21">
         <f t="shared" si="1"/>
-        <v>36.616000000000007</v>
+        <v>10.9848</v>
       </c>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="L155" s="21">
         <f t="shared" si="1"/>
-        <v>24.192000000000004</v>
+        <v>7.2576000000000001</v>
       </c>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="L156" s="21">
         <f t="shared" si="1"/>
-        <v>74.915999999999997</v>
+        <v>22.474799999999998</v>
       </c>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="L157" s="21">
         <f t="shared" si="1"/>
-        <v>9.8879999999999999</v>
+        <v>2.9663999999999997</v>
       </c>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="L158" s="21">
         <f t="shared" si="1"/>
-        <v>64.775999999999996</v>
+        <v>19.4328</v>
       </c>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="L159" s="21">
         <f t="shared" si="1"/>
-        <v>46.14500000000001</v>
+        <v>13.843500000000001</v>
       </c>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="L160" s="21">
         <f t="shared" si="1"/>
-        <v>7.2170000000000005</v>
+        <v>2.1650999999999998</v>
       </c>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="L161" s="21">
         <f t="shared" si="1"/>
-        <v>25.14</v>
+        <v>7.5419999999999998</v>
       </c>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="L162" s="21">
         <f t="shared" si="1"/>
-        <v>87.498000000000005</v>
+        <v>26.249399999999998</v>
       </c>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="L163" s="21">
         <f t="shared" si="1"/>
-        <v>56.034000000000006</v>
+        <v>16.810200000000002</v>
       </c>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="L164" s="21">
         <f t="shared" si="1"/>
-        <v>34.544000000000004</v>
+        <v>10.363199999999999</v>
       </c>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="L165" s="21">
         <f t="shared" si="1"/>
-        <v>6.3689999999999998</v>
+        <v>1.9106999999999998</v>
       </c>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="L166" s="21">
         <f t="shared" si="1"/>
-        <v>32.052999999999997</v>
+        <v>9.6158999999999981</v>
       </c>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="L167" s="21">
         <f t="shared" si="1"/>
-        <v>15.280000000000001</v>
+        <v>4.5840000000000005</v>
       </c>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="L168" s="21">
         <f t="shared" si="1"/>
-        <v>39.900000000000006</v>
+        <v>11.969999999999999</v>
       </c>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="L169" s="21">
         <f t="shared" si="1"/>
-        <v>34.056000000000004</v>
+        <v>10.216799999999999</v>
       </c>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="L170" s="21">
         <f t="shared" si="1"/>
-        <v>95.58</v>
+        <v>28.673999999999996</v>
       </c>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="L171" s="21">
         <f t="shared" si="1"/>
-        <v>98.980000000000018</v>
+        <v>29.694000000000003</v>
       </c>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="L172" s="21">
         <f t="shared" si="1"/>
-        <v>30.768000000000001</v>
+        <v>9.2303999999999995</v>
       </c>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="L173" s="21">
         <f t="shared" si="1"/>
-        <v>48.664000000000001</v>
+        <v>14.5992</v>
       </c>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="L174" s="21">
         <f t="shared" si="1"/>
-        <v>35.005000000000003</v>
+        <v>10.5015</v>
       </c>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="L175" s="21">
         <f t="shared" si="1"/>
-        <v>40.025000000000006</v>
+        <v>12.0075</v>
       </c>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="L176" s="21">
         <f t="shared" si="1"/>
-        <v>16.680000000000003</v>
+        <v>5.0040000000000004</v>
       </c>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="L177" s="21">
         <f t="shared" si="1"/>
-        <v>31.734000000000005</v>
+        <v>9.5202000000000009</v>
       </c>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L178" s="21">
         <f t="shared" si="1"/>
-        <v>15.832000000000001</v>
+        <v>4.7496</v>
       </c>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="L179" s="21">
         <f t="shared" si="1"/>
-        <v>30.456000000000007</v>
+        <v>9.1368000000000009</v>
       </c>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="L180" s="21">
         <f t="shared" si="1"/>
-        <v>17.736000000000001</v>
+        <v>5.3208000000000002</v>
       </c>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="L181" s="21">
         <f t="shared" si="1"/>
-        <v>15.757000000000003</v>
+        <v>4.7271000000000001</v>
       </c>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="L182" s="21">
         <f t="shared" si="1"/>
-        <v>44.328000000000003</v>
+        <v>13.298399999999999</v>
       </c>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="L183" s="21">
         <f t="shared" si="1"/>
-        <v>26.04</v>
+        <v>7.8119999999999994</v>
       </c>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="L184" s="21">
         <f t="shared" si="1"/>
-        <v>44.982000000000006</v>
+        <v>13.4946</v>
       </c>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L185" s="21">
         <f t="shared" si="1"/>
-        <v>30.776</v>
+        <v>9.2327999999999992</v>
       </c>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="L186" s="21">
         <f t="shared" si="1"/>
-        <v>15.05</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="L187" s="21">
         <f t="shared" si="1"/>
-        <v>27.448000000000004</v>
+        <v>8.2344000000000008</v>
       </c>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="L188" s="21">
         <f t="shared" si="1"/>
-        <v>13.538</v>
+        <v>4.0613999999999999</v>
       </c>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="L189" s="21">
         <f t="shared" si="1"/>
-        <v>5.4239999999999995</v>
+        <v>1.6271999999999998</v>
       </c>
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="L190" s="21">
         <f t="shared" si="1"/>
-        <v>75.591999999999999</v>
+        <v>22.677599999999998</v>
       </c>
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="L191" s="21">
         <f t="shared" si="1"/>
-        <v>18.588000000000001</v>
+        <v>5.5763999999999996</v>
       </c>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="L192" s="21">
         <f t="shared" si="1"/>
-        <v>7.407</v>
+        <v>2.2220999999999997</v>
       </c>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="L193" s="21">
         <f t="shared" si="1"/>
-        <v>27.924000000000003</v>
+        <v>8.3772000000000002</v>
       </c>
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="L194" s="21">
         <f t="shared" si="1"/>
-        <v>23.112000000000002</v>
+        <v>6.9336000000000002</v>
       </c>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="L195" s="21">
         <f t="shared" si="1"/>
-        <v>14.704000000000001</v>
+        <v>4.4112</v>
       </c>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="L196" s="21">
         <f t="shared" si="1"/>
-        <v>79.02</v>
+        <v>23.705999999999996</v>
       </c>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="L197" s="21">
         <f t="shared" si="1"/>
-        <v>10.220000000000001</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="L198" s="21">
         <f t="shared" si="1"/>
-        <v>16.355</v>
+        <v>4.9065000000000003</v>
       </c>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="L199" s="21">
         <f t="shared" si="1"/>
-        <v>7.4290000000000012</v>
+        <v>2.2286999999999999</v>
       </c>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="L200" s="21">
         <f t="shared" si="1"/>
-        <v>8.74</v>
+        <v>2.6219999999999999</v>
       </c>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="L201" s="21">
         <f t="shared" si="1"/>
-        <v>2.5289999999999999</v>
+        <v>0.75869999999999993</v>
       </c>
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="L202" s="21">
         <f t="shared" si="1"/>
-        <v>16.600000000000001</v>
+        <v>4.9799999999999995</v>
       </c>
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="L203" s="21">
         <f t="shared" si="1"/>
-        <v>35.695</v>
+        <v>10.708499999999999</v>
       </c>
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
